--- a/biology/Médecine/Ludwig_Heusner/Ludwig_Heusner.xlsx
+++ b/biology/Médecine/Ludwig_Heusner/Ludwig_Heusner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Heusner (né le 28 novembre 1843 à Boppard et mort le 27 janvier 1916 à Giessen) est un chirurgien allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine aux universités de Berlin, Heidelberg, Würzbourg, Bonn et Kiel et obtient son doctorat en 1868. Il sert comme médecin assistant pendant la guerre franco-prussienne et, après la fin des hostilités, s'installe comme médecin généraliste à Barmen (actuellement partie de la ville de Wuppertal). En 1878, il est nommé médecin-chef de l'hôpital de Barmen et, en 1903, il reçoit le titre de professeur.
 En 1898, il cofonde la Vereinigung Niederrheinisch-Westfälischer Chirurgen (Union des chirurgiens de la Basse-Rhénanie-Westphalie). En 1904, il est nommé président de la Deutschen Gesellschaft für Orthopädie (Société allemande d'orthopédie).
@@ -544,9 +558,11 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ueber Oberkieferresection mit mö̈glichster Schonung der Weichtheile, (1889)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ueber Oberkieferresection mit mö̈glichster Schonung der Weichtheile, (1889).
 Ein Fall von einem free in der Bauchhöhle perforirten Magengeschwür ; Laparotomie ; Naht der Perforationsstelle; Heilung, rapporté par Hermann Kriege, (1892) – Un cas de perforation de l'abdomen (ulcère de l'estomac) ; laparotomie ; suture de la perforation.
 Démonstration neuer Apparate zur Behandlung des Klumpfußes . Z. Orthop. XI, (1904).
 Beitrag zur Behandlung der tuberkulösen Hüftgelenkverrenkung . Z. Orthop. XXV, (1910).</t>
